--- a/Data/aearep-1809/candidatepackages.xlsx
+++ b/Data/aearep-1809/candidatepackages.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="63">
   <si>
     <t>(Potential) missing package found</t>
   </si>
@@ -22,9 +22,6 @@
     <t>estout</t>
   </si>
   <si>
-    <t>filelist</t>
-  </si>
-  <si>
     <t>winsor</t>
   </si>
   <si>
@@ -49,9 +46,6 @@
     <t>missing</t>
   </si>
   <si>
-    <t>network</t>
-  </si>
-  <si>
     <t>multencode</t>
   </si>
   <si>
@@ -64,66 +58,60 @@
     <t>panels</t>
   </si>
   <si>
+    <t>white</t>
+  </si>
+  <si>
     <t>rev</t>
   </si>
   <si>
-    <t>white</t>
-  </si>
-  <si>
     <t>ic</t>
   </si>
   <si>
     <t>cart</t>
   </si>
   <si>
+    <t>median</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>art</t>
   </si>
   <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>irr</t>
   </si>
   <si>
-    <t>lars</t>
-  </si>
-  <si>
-    <t>median</t>
-  </si>
-  <si>
     <t>bys</t>
   </si>
   <si>
+    <t>effects</t>
+  </si>
+  <si>
     <t>care</t>
   </si>
   <si>
-    <t>effects</t>
-  </si>
-  <si>
     <t>flower</t>
   </si>
   <si>
+    <t>gets</t>
+  </si>
+  <si>
     <t>next</t>
   </si>
   <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>zip</t>
+    <t>head</t>
   </si>
   <si>
     <t>tr</t>
   </si>
   <si>
-    <t>gets</t>
-  </si>
-  <si>
-    <t>head</t>
-  </si>
-  <si>
     <t>usd</t>
   </si>
   <si>
+    <t>try</t>
+  </si>
+  <si>
     <t>grand</t>
   </si>
   <si>
@@ -148,30 +136,15 @@
     <t>dirname</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-1809</t>
-  </si>
-  <si>
     <t>/home/lv39/Workspace/AEA/all//aearep-1809/130362/TUP_replication</t>
   </si>
   <si>
     <t>/home/lv39/Workspace/AEA/all//aearep-1809/130362/TUP_replication/DoFiles</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-1809/tools</t>
-  </si>
-  <si>
     <t>filename</t>
   </si>
   <si>
-    <t>PII_stata_scan.do</t>
-  </si>
-  <si>
-    <t>config.do</t>
-  </si>
-  <si>
-    <t>template-config.do</t>
-  </si>
-  <si>
     <t>TUP_Master.do</t>
   </si>
   <si>
@@ -230,9 +203,6 @@
   </si>
   <si>
     <t>label_HH_vars.do</t>
-  </si>
-  <si>
-    <t>convert_graphs.do</t>
   </si>
 </sst>
 </file>
@@ -276,7 +246,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D36"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -284,13 +254,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2">
@@ -310,7 +280,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -322,7 +292,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -334,7 +304,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -346,7 +316,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -358,7 +328,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -370,7 +340,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>92</v>
+        <v>146</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -382,7 +352,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -394,7 +364,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>160</v>
+        <v>293</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -406,7 +376,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>267</v>
+        <v>315</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -418,10 +388,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>279</v>
+        <v>499</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>0.16495867073535919</v>
       </c>
       <c r="D12"/>
     </row>
@@ -430,10 +400,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>319</v>
+        <v>563</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>0.18611569702625275</v>
       </c>
       <c r="D13"/>
     </row>
@@ -442,10 +412,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>565</v>
+        <v>657</v>
       </c>
       <c r="C14">
-        <v>0.18733422458171844</v>
+        <v>0.21719008684158325</v>
       </c>
       <c r="D14"/>
     </row>
@@ -454,10 +424,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>566</v>
+        <v>712</v>
       </c>
       <c r="C15">
-        <v>0.18766577541828156</v>
+        <v>0.2353719025850296</v>
       </c>
       <c r="D15"/>
     </row>
@@ -466,10 +436,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>679</v>
+        <v>746</v>
       </c>
       <c r="C16">
-        <v>0.22513262927532196</v>
+        <v>0.24661156535148621</v>
       </c>
       <c r="D16"/>
     </row>
@@ -478,10 +448,10 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>698</v>
+        <v>852</v>
       </c>
       <c r="C17">
-        <v>0.23143236339092255</v>
+        <v>0.28165289759635925</v>
       </c>
       <c r="D17"/>
     </row>
@@ -490,10 +460,10 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>745</v>
+        <v>858</v>
       </c>
       <c r="C18">
-        <v>0.24701590836048126</v>
+        <v>0.28363636136054993</v>
       </c>
       <c r="D18"/>
     </row>
@@ -502,10 +472,10 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>839</v>
+        <v>955</v>
       </c>
       <c r="C19">
-        <v>0.27818301320075989</v>
+        <v>0.31570246815681458</v>
       </c>
       <c r="D19"/>
     </row>
@@ -514,10 +484,10 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>855</v>
+        <v>998</v>
       </c>
       <c r="C20">
-        <v>0.28348806500434875</v>
+        <v>0.32991734147071838</v>
       </c>
       <c r="D20"/>
     </row>
@@ -526,10 +496,10 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>942</v>
+        <v>1011</v>
       </c>
       <c r="C21">
-        <v>0.31233420968055725</v>
+        <v>0.33421486616134644</v>
       </c>
       <c r="D21"/>
     </row>
@@ -538,10 +508,10 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>985</v>
+        <v>1163</v>
       </c>
       <c r="C22">
-        <v>0.32659152150154114</v>
+        <v>0.38446280360221863</v>
       </c>
       <c r="D22"/>
     </row>
@@ -550,10 +520,10 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>1123</v>
+        <v>1306</v>
       </c>
       <c r="C23">
-        <v>0.37234747409820557</v>
+        <v>0.43173554539680481</v>
       </c>
       <c r="D23"/>
     </row>
@@ -562,10 +532,10 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>1124</v>
+        <v>1497</v>
       </c>
       <c r="C24">
-        <v>0.37267905473709106</v>
+        <v>0.49487602710723877</v>
       </c>
       <c r="D24"/>
     </row>
@@ -574,10 +544,10 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>1133</v>
+        <v>1678</v>
       </c>
       <c r="C25">
-        <v>0.37566313147544861</v>
+        <v>0.5547107458114624</v>
       </c>
       <c r="D25"/>
     </row>
@@ -586,10 +556,10 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>1472</v>
+        <v>1864</v>
       </c>
       <c r="C26">
-        <v>0.48806366324424744</v>
+        <v>0.61619836091995239</v>
       </c>
       <c r="D26"/>
     </row>
@@ -598,10 +568,10 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>1621</v>
+        <v>1865</v>
       </c>
       <c r="C27">
-        <v>0.53746682405471802</v>
+        <v>0.61652892827987671</v>
       </c>
       <c r="D27"/>
     </row>
@@ -610,10 +580,10 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>1660</v>
+        <v>1880</v>
       </c>
       <c r="C28">
-        <v>0.55039787292480469</v>
+        <v>0.62148761749267578</v>
       </c>
       <c r="D28"/>
     </row>
@@ -622,10 +592,10 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>1711</v>
+        <v>1971</v>
       </c>
       <c r="C29">
-        <v>0.56730771064758301</v>
+        <v>0.65157026052474976</v>
       </c>
       <c r="D29"/>
     </row>
@@ -634,10 +604,10 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>1798</v>
+        <v>1975</v>
       </c>
       <c r="C30">
-        <v>0.5961538553237915</v>
+        <v>0.6528925895690918</v>
       </c>
       <c r="D30"/>
     </row>
@@ -646,10 +616,10 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>1817</v>
+        <v>2008</v>
       </c>
       <c r="C31">
-        <v>0.60245358943939209</v>
+        <v>0.66380167007446289</v>
       </c>
       <c r="D31"/>
     </row>
@@ -658,10 +628,10 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>1859</v>
+        <v>2057</v>
       </c>
       <c r="C32">
-        <v>0.61637932062149048</v>
+        <v>0.68000000715255737</v>
       </c>
       <c r="D32"/>
     </row>
@@ -670,10 +640,10 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>1951</v>
+        <v>2218</v>
       </c>
       <c r="C33">
-        <v>0.64688330888748169</v>
+        <v>0.73322314023971558</v>
       </c>
       <c r="D33"/>
     </row>
@@ -682,10 +652,10 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>1965</v>
+        <v>2359</v>
       </c>
       <c r="C34">
-        <v>0.65152519941329956</v>
+        <v>0.77983468770980835</v>
       </c>
       <c r="D34"/>
     </row>
@@ -694,10 +664,10 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>2133</v>
+        <v>2936</v>
       </c>
       <c r="C35">
-        <v>0.70722812414169312</v>
+        <v>0.97057849168777466</v>
       </c>
       <c r="D35"/>
     </row>
@@ -706,60 +676,12 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>2217</v>
+        <v>2977</v>
       </c>
       <c r="C36">
-        <v>0.73507958650588989</v>
+        <v>0.98413223028182983</v>
       </c>
       <c r="D36"/>
-    </row>
-    <row r="37">
-      <c r="A37" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37">
-        <v>2430</v>
-      </c>
-      <c r="C37">
-        <v>0.80570292472839355</v>
-      </c>
-      <c r="D37"/>
-    </row>
-    <row r="38">
-      <c r="A38" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38">
-        <v>2529</v>
-      </c>
-      <c r="C38">
-        <v>0.8385278582572937</v>
-      </c>
-      <c r="D38"/>
-    </row>
-    <row r="39">
-      <c r="A39" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39">
-        <v>2928</v>
-      </c>
-      <c r="C39">
-        <v>0.97082227468490601</v>
-      </c>
-      <c r="D39"/>
-    </row>
-    <row r="40">
-      <c r="A40" t="s">
-        <v>39</v>
-      </c>
-      <c r="B40">
-        <v>2989</v>
-      </c>
-      <c r="C40">
-        <v>0.99104773998260498</v>
-      </c>
-      <c r="D40"/>
     </row>
   </sheetData>
 </worksheet>
@@ -767,207 +689,175 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B21"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
         <v>44</v>
-      </c>
-      <c r="B3" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B19" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
